--- a/medicine/Sexualité et sexologie/Literary_Review/Literary_Review.xlsx
+++ b/medicine/Sexualité et sexologie/Literary_Review/Literary_Review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Literary Review est un magazine littéraire britannique fondé en 1979 par Anne Smith, alors directrice du département d'anglais de l'université d'Édimbourg.    
-Ses bureaux sont situés à Lexington Street, à Soho, à Londres, et son tirage est de 44 750 exemplaires[1].         
+Ses bureaux sont situés à Lexington Street, à Soho, à Londres, et son tirage est de 44 750 exemplaires.         
 Le magazine a été édité pendant quatorze ans par le journaliste Auberon Waugh. La rédactrice en chef actuelle est Nancy Sladek. 
 Le magazine examine une vaste gamme de livres publiés, notamment des ouvrages de fiction, d'histoire, de politique, de biographie et de voyage. Parmi les collaborateurs au magazine figurent Diana Athill, Kingsley Amis, Martin Amis, Beryl Bainbridge, John Banville, Julian Barnes, Maile Chapman, Hilary Mantel, John Mortimer, Malcolm Bradbury, A. S. Byatt, Paul Johnson, David Starkey, John Grey, Robert Harris, Nick Hornby, Richard Ingrams, Joseph O'Neill, Lynn Barber, Derek Mahon, Oleg Gordievsky, John Sutherland et D.J. Taylor.  
-Literary Review imprime également de nouvelles fictions. Les auteurs récemment publiés[2] incluent William Trevor, Claire Keegan et Nicola Barker. 
+Literary Review imprime également de nouvelles fictions. Les auteurs récemment publiés incluent William Trevor, Claire Keegan et Nicola Barker. 
 </t>
         </is>
       </c>
@@ -516,37 +528,74 @@
           <t>Prix Bad Sex in Fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Literary Review est connue pour son prix annuel Bad Sex in Fiction. Chaque année depuis 1993, Literary Review remet le prix annuel Bad Sex in Fiction à l'auteur qui produit la pire description d'une scène de sexe dans un roman. Le prix se présente sous la forme d'un « trophée semi-abstrait représentant le sexe dans les années 1950 »[3] et représente une femme nue drapée sur[Quoi ?] un livre ouvert[réf. nécessaire]. Le prix a été créé par Rhoda Koenig, critique littéraire, et Auberon Waugh, alors rédacteur en chef du magazine. 
-Lauréats
-1993 : Melvyn Bragg, A Time to Dance
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Literary Review est connue pour son prix annuel Bad Sex in Fiction. Chaque année depuis 1993, Literary Review remet le prix annuel Bad Sex in Fiction à l'auteur qui produit la pire description d'une scène de sexe dans un roman. Le prix se présente sous la forme d'un « trophée semi-abstrait représentant le sexe dans les années 1950 » et représente une femme nue drapée sur[Quoi ?] un livre ouvert[réf. nécessaire]. Le prix a été créé par Rhoda Koenig, critique littéraire, et Auberon Waugh, alors rédacteur en chef du magazine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Literary_Review</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Literary_Review</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Prix Bad Sex in Fiction</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1993 : Melvyn Bragg, A Time to Dance
 1994 : Philip Hook, The Stonebreakers
 1995 : Philip Kerr, La Tour d'Abraham
 1996 : David Huggins, The Big Kiss: An Arcade Mystery
 1997 : Nicholas Royle, The Matter of the Heart
 1998 : Sebastian Faulks, Charlotte Gray
 1999 : A. A. Gill, Starcrossed
-2000 : Sean Thomas, Kissing England[4]
+2000 : Sean Thomas, Kissing England
 2001 : Christopher Hart, Rescue Me
-2002 : Wendy Perriam, Tread Softly[3]
+2002 : Wendy Perriam, Tread Softly
 2003 : Aniruddha Bahal, Bunker 13
 2004 : Tom Wolfe, Moi, Charlotte Simmons
-2005 : Giles Coren, Winkler[5]
-2006 : Iain Hollingshead, Twenty Something[6]
-2007 : Norman Mailer, Un château en forêt[7]
+2005 : Giles Coren, Winkler
+2006 : Iain Hollingshead, Twenty Something
+2007 : Norman Mailer, Un château en forêt
 2008 : Rachel Johnson, Shire Hell ; John Updike, Lifetime Achievement Award
-2009 : Jonathan Littell, Les Bienveillantes[8]
-2010 : Rowan Somerville, The Shape of Her[9]
-2011 : David Guterson, Ed King[10]
-2012 : Nancy Huston, Infrared[11]
+2009 : Jonathan Littell, Les Bienveillantes
+2010 : Rowan Somerville, The Shape of Her
+2011 : David Guterson, Ed King
+2012 : Nancy Huston, Infrared
 2013 : Manil Suri, The City of Devi
-2014 : Ben Okri, The Age of Magic[12]
-2015 : Morrissey, List of the Lost[13]
+2014 : Ben Okri, The Age of Magic
+2015 : Morrissey, List of the Lost
 2016 : Erri De Luca, The Day Before Happiness
 2017 : Christopher Bollen, The Destroyers
 2018 : James Frey, Katerina
-2019 : Didier Decoin, Le Bureau des jardins et des étangs ; John Harvey, Pax[14]</t>
+2019 : Didier Decoin, Le Bureau des jardins et des étangs ; John Harvey, Pax</t>
         </is>
       </c>
     </row>
